--- a/Results/Training_Plan.xlsx
+++ b/Results/Training_Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96b2e28e11ffcb6a/Dokumente/Studium-Vincents-Surface/Master/Unterlagen/Master Thesis/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96b2e28e11ffcb6a/Dokumente/Studium-Vincents-Surface/Master/Unterlagen/Master Thesis/Repository/MasterThesis/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="11_AD4DB114E441178AC67DF4162E17CDD6683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48A8BB35-480E-4BED-A19E-DBA73198FB7E}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="11_AD4DB114E441178AC67DF4162E17CDD6683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{880E26CB-5CB4-455F-85CB-5039248F2B09}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="32">
   <si>
     <t>Input Columns</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Responsibilities</t>
   </si>
   <si>
-    <t>DWS-Internal-Server</t>
-  </si>
-  <si>
     <t>bwUniCluster</t>
   </si>
   <si>
@@ -118,6 +115,12 @@
   </si>
   <si>
     <t>missing</t>
+  </si>
+  <si>
+    <t>DWS-Internal-Server_1</t>
+  </si>
+  <si>
+    <t>DWS-Internal-Server_2</t>
   </si>
 </sst>
 </file>
@@ -607,7 +610,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,10 +624,10 @@
     <col min="9" max="9" width="8.88671875" style="7"/>
     <col min="10" max="10" width="9.44140625" style="7" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" style="9"/>
-    <col min="12" max="12" width="17.77734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.77734375" style="22" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" style="7"/>
     <col min="15" max="15" width="10.44140625" customWidth="1"/>
-    <col min="17" max="17" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -692,10 +695,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>20</v>
@@ -710,7 +713,7 @@
         <v>20</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M2" s="7">
         <v>1</v>
@@ -722,7 +725,7 @@
         <v>11</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -739,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>20</v>
@@ -760,19 +763,19 @@
         <v>20</v>
       </c>
       <c r="L3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="P3" t="s">
         <v>15</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -807,15 +810,14 @@
         <v>20</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="O4" s="16"/>
+      <c r="Q4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -829,7 +831,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -850,10 +852,15 @@
         <v>20</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="O5" s="17"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -870,25 +877,25 @@
         <v>2</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -908,28 +915,28 @@
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -952,28 +959,34 @@
         <v>2</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="O8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="19" t="s">
+      <c r="P8" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -990,10 +1003,10 @@
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>20</v>
@@ -1010,11 +1023,17 @@
       <c r="K9" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="L9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="7">
+        <v>2</v>
+      </c>
       <c r="O9" s="10" t="s">
         <v>20</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1039,11 +1058,17 @@
       <c r="K10" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="L10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="7">
+        <v>3</v>
+      </c>
       <c r="O10" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1060,11 +1085,17 @@
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="7">
+        <v>4</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1083,6 +1114,12 @@
       <c r="E12" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="L12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="7">
+        <v>3</v>
+      </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
@@ -1100,7 +1137,13 @@
         <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="7">
+        <v>4</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -1138,7 +1181,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1149,8 +1192,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{0557E147-1C7C-46C1-9715-752FB4B70AB9}">
       <formula1>$O$2:$O$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{F9AB7C4B-75A2-452C-8CE9-92FE24535681}">
-      <formula1>$Q$2:$Q$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{9FC7B750-BD95-4F47-B25E-8B60CB128C9C}">
+      <formula1>$Q$2:$Q$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/Training_Plan.xlsx
+++ b/Results/Training_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96b2e28e11ffcb6a/Dokumente/Studium-Vincents-Surface/Master/Unterlagen/Master Thesis/Repository/MasterThesis/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="11_AD4DB114E441178AC67DF4162E17CDD6683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{880E26CB-5CB4-455F-85CB-5039248F2B09}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="11_AD4DB114E441178AC67DF4162E17CDD6683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C959196-78C0-4D69-AE53-987679876F75}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="39">
   <si>
     <t>Input Columns</t>
   </si>
@@ -121,6 +121,27 @@
   </si>
   <si>
     <t>DWS-Internal-Server_2</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>DWS-Internal-Server_3</t>
+  </si>
+  <si>
+    <t>DWS-Internal-Server_4</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Architectures</t>
+  </si>
+  <si>
+    <t>Common Dropout-Dense-Dropout</t>
   </si>
 </sst>
 </file>
@@ -152,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -270,28 +291,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -311,21 +333,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,593 +661,683 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="7"/>
-    <col min="8" max="8" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="7"/>
-    <col min="10" max="10" width="9.44140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="9"/>
-    <col min="12" max="12" width="19.77734375" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="7"/>
-    <col min="15" max="15" width="10.44140625" customWidth="1"/>
-    <col min="17" max="17" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="17"/>
+    <col min="2" max="2" width="18.21875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="25" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="26"/>
+    <col min="9" max="9" width="10.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="26"/>
+    <col min="11" max="11" width="9.44140625" style="26" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="27"/>
+    <col min="13" max="13" width="19.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.77734375" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" customWidth="1"/>
+    <col min="20" max="20" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="O1" s="13" t="s">
+      <c r="N1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="16"/>
+      <c r="R1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="S1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="T1" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="U1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="26">
+        <v>1</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="12"/>
+      <c r="T4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="13"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="26">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
+        <v>3</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="26">
+        <v>2</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
+        <v>4</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <v>4</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <v>5</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>5</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>6</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="26">
+        <v>3</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>6</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="26">
+        <v>4</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>7</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="26">
+        <v>1</v>
+      </c>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>7</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="17:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="17:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Q18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="7">
-        <v>1</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="16"/>
-      <c r="Q4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="7">
-        <v>2</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="7">
-        <v>3</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" s="9" t="s">
+      <c r="R19" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="12" t="s">
+    <row r="20" spans="17:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q20" s="7"/>
+      <c r="R20" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="7">
-        <v>3</v>
-      </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="7">
-        <v>4</v>
-      </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
+    <row r="21" spans="17:18" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{776E8834-3E92-4F5F-A1CD-709269D51B80}">
-      <formula1>$P$2:$P$3</formula1>
+      <formula1>$S$2:$S$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{0557E147-1C7C-46C1-9715-752FB4B70AB9}">
-      <formula1>$O$2:$O$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576 F2:F9 F14:F1048576" xr:uid="{0557E147-1C7C-46C1-9715-752FB4B70AB9}">
+      <formula1>$R$2:$R$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{9FC7B750-BD95-4F47-B25E-8B60CB128C9C}">
-      <formula1>$Q$2:$Q$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{11372E12-6779-4F7B-AA83-A71D9883A944}">
+      <formula1>$T$2:$T$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/Training_Plan.xlsx
+++ b/Results/Training_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96b2e28e11ffcb6a/Dokumente/Studium-Vincents-Surface/Master/Unterlagen/Master Thesis/Repository/MasterThesis/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="11_AD4DB114E441178AC67DF4162E17CDD6683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C959196-78C0-4D69-AE53-987679876F75}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="11_AD4DB114E441178AC67DF4162E17CDD6683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB29FA32-14ED-4AF3-BD00-39FF27FAFA8C}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="41">
   <si>
     <t>Input Columns</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Common Dropout-Dense-Dropout</t>
+  </si>
+  <si>
+    <t>Activity+ Resource + Timestamp</t>
+  </si>
+  <si>
+    <t>Seperate Dropout-Dense-Dropout</t>
   </si>
 </sst>
 </file>
@@ -663,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,10 +790,7 @@
         <v>20</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="26">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="R2" s="12" t="s">
         <v>2</v>
@@ -969,10 +972,7 @@
         <v>20</v>
       </c>
       <c r="M6" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="26">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>34</v>
@@ -1013,10 +1013,7 @@
         <v>20</v>
       </c>
       <c r="M7" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="26">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>35</v>
@@ -1057,10 +1054,7 @@
         <v>20</v>
       </c>
       <c r="M8" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="26">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -1098,10 +1092,7 @@
         <v>20</v>
       </c>
       <c r="M9" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="26">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
@@ -1121,13 +1112,13 @@
         <v>2</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M10" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N10" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
@@ -1147,13 +1138,13 @@
         <v>25</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M11" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N11" s="26">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
@@ -1161,25 +1152,25 @@
         <v>6</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M12" s="28" t="s">
         <v>31</v>
       </c>
       <c r="N12" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
@@ -1189,25 +1180,25 @@
         <v>6</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M13" s="28" t="s">
         <v>31</v>
       </c>
       <c r="N13" s="26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
@@ -1247,10 +1238,7 @@
         <v>20</v>
       </c>
       <c r="M14" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="26">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
@@ -1290,10 +1278,7 @@
         <v>20</v>
       </c>
       <c r="M15" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="N15" s="26">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>

--- a/Results/Training_Plan.xlsx
+++ b/Results/Training_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96b2e28e11ffcb6a/Dokumente/Studium-Vincents-Surface/Master/Unterlagen/Master Thesis/Repository/MasterThesis/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="11_AD4DB114E441178AC67DF4162E17CDD6683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB29FA32-14ED-4AF3-BD00-39FF27FAFA8C}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="11_AD4DB114E441178AC67DF4162E17CDD6683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A988C93B-D422-43EC-999F-9BFBFEEFED1B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="43">
   <si>
     <t>Input Columns</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Seperate Dropout-Dense-Dropout</t>
+  </si>
+  <si>
+    <t>Activity + Timestamp_next + Timestamp_last</t>
+  </si>
+  <si>
+    <t>Activity_next + Timestamp_next + Timestamp_last</t>
   </si>
 </sst>
 </file>
@@ -669,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1281,8 +1287,51 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="17:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="17">
+        <v>8</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="17">
+        <v>8</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="26">
+        <v>2</v>
+      </c>
       <c r="Q17" s="14" t="s">
         <v>27</v>
       </c>
@@ -1290,7 +1339,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="17:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
+        <v>9</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="26">
+        <v>1</v>
+      </c>
       <c r="Q18" s="6" t="s">
         <v>20</v>
       </c>
@@ -1298,7 +1368,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="17:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
+        <v>9</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="26">
+        <v>2</v>
+      </c>
       <c r="Q19" s="6" t="s">
         <v>26</v>
       </c>
@@ -1306,19 +1397,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="17:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q20" s="7"/>
       <c r="R20" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="17:18" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{776E8834-3E92-4F5F-A1CD-709269D51B80}">
       <formula1>$S$2:$S$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576 F2:F9 F14:F1048576" xr:uid="{0557E147-1C7C-46C1-9715-752FB4B70AB9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576 F2:F9 F14:F15 F20:F1048576" xr:uid="{0557E147-1C7C-46C1-9715-752FB4B70AB9}">
       <formula1>$R$2:$R$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{11372E12-6779-4F7B-AA83-A71D9883A944}">

--- a/Results/Training_Plan.xlsx
+++ b/Results/Training_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96b2e28e11ffcb6a/Dokumente/Studium-Vincents-Surface/Master/Unterlagen/Master Thesis/Repository/MasterThesis/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="11_AD4DB114E441178AC67DF4162E17CDD6683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A988C93B-D422-43EC-999F-9BFBFEEFED1B}"/>
+  <xr:revisionPtr revIDLastSave="293" documentId="11_AD4DB114E441178AC67DF4162E17CDD6683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C5C7660-1FC6-40D4-9865-E0302D5117ED}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="43">
   <si>
     <t>Input Columns</t>
   </si>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1120,6 +1120,24 @@
       <c r="F10" s="29" t="s">
         <v>40</v>
       </c>
+      <c r="G10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="M10" s="28" t="s">
         <v>30</v>
       </c>
@@ -1146,6 +1164,24 @@
       <c r="F11" s="29" t="s">
         <v>40</v>
       </c>
+      <c r="G11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="M11" s="28" t="s">
         <v>30</v>
       </c>
@@ -1172,6 +1208,24 @@
       <c r="F12" s="29" t="s">
         <v>40</v>
       </c>
+      <c r="G12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="M12" s="28" t="s">
         <v>31</v>
       </c>
@@ -1200,6 +1254,24 @@
       <c r="F13" s="29" t="s">
         <v>40</v>
       </c>
+      <c r="G13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="M13" s="28" t="s">
         <v>31</v>
       </c>
@@ -1303,6 +1375,24 @@
       <c r="F16" s="29" t="s">
         <v>40</v>
       </c>
+      <c r="G16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="M16" s="28" t="s">
         <v>34</v>
       </c>
@@ -1326,6 +1416,24 @@
       <c r="F17" s="29" t="s">
         <v>40</v>
       </c>
+      <c r="G17" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="M17" s="28" t="s">
         <v>34</v>
       </c>
@@ -1355,6 +1463,24 @@
       <c r="F18" s="29" t="s">
         <v>40</v>
       </c>
+      <c r="G18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="M18" s="28" t="s">
         <v>35</v>
       </c>
@@ -1383,6 +1509,24 @@
       </c>
       <c r="F19" s="29" t="s">
         <v>40</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="M19" s="28" t="s">
         <v>35</v>
